--- a/test_results_by_phase.xlsx
+++ b/test_results_by_phase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,22 +437,122 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>191R2 Start</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>191R2 End</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>191S7 Start</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>191S7 End</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>191S3 Start</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>191S3 End</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>191S1 Start</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>191S1 End</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>191S4 Start</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>191S4 End</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>191S5 Start</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>191S5 End</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>191R1 Start</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>191R1 End</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>191S6 Start</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>191S6 End</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>191R4 Start</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>191R4 End</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>191R3 Start</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>191R3 End</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>191R6 Start</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>191R6 End</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>191R5 Start</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>191R5 End</t>
         </is>
       </c>
     </row>
@@ -482,6 +582,106 @@
           <t>End</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -491,22 +691,98 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00:01:12:00</t>
+          <t>00:01:31:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04:41:03:00</t>
+          <t>00:03:21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:02:04:00</t>
+          <t>00:00:42:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>06:37:30:00</t>
+          <t>00:01:40:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>00:00:34:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>00:00:37:00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>00:01:04:00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>00:01:06:00</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>00:00:25:00</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>00:00:45:00</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>00:00:47:00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>00:18:13:00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>00:00:46:00</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>00:00:46:00</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>00:00:20:00</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>00:00:20:00</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>00:00:24:00</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>00:00:31:00</t>
         </is>
       </c>
     </row>
@@ -520,14 +796,66 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:53:00</t>
+          <t>00:01:30:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08:51:44:00</t>
-        </is>
-      </c>
+          <t>00:01:30:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>00:00:24:00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>00:00:49:00</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>00:00:27:00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>00:00:36:00</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>00:00:29:00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>00:18:11:00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>00:00:17:00</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>00:00:47:00</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -537,24 +865,76 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00:02:11:00</t>
+          <t>00:00:41:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>04:14:48:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>00:02:26:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>01:12:04:00</t>
-        </is>
-      </c>
+          <t>00:12:28:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>00:00:41:00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>00:00:41:00</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>00:00:23:00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>00:00:43:00</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>00:00:29:00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>00:11:30:00</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>00:00:43:00</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>00:00:48:00</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>00:00:28:00</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>00:00:28:00</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,24 +944,60 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00:00:56:00</t>
+          <t>00:04:14:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>03:24:12:00</t>
+          <t>00:04:14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:23:00</t>
+          <t>00:00:43:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08:25:32:00</t>
-        </is>
-      </c>
+          <t>00:01:40:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>00:00:33:00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>00:00:33:00</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>00:00:34:00</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>00:17:06:00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -591,24 +1007,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>00:02:32:00</t>
+          <t>00:13:04:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>04:38:09:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>00:02:24:00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>08:24:05:00</t>
-        </is>
-      </c>
+          <t>00:13:04:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>00:00:33:00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>00:00:33:00</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>00:00:30:00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>00:18:10:00</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -618,24 +1062,100 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>00:00:41:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>00:12:28:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>00:00:54:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>00:01:40:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>00:00:36:00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>00:00:36:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>00:00:24:00</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>04:47:45:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>00:02:00:00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>08:55:07:00</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>00:01:05:00</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>00:00:21:00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>00:00:46:00</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>00:00:25:00</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>00:18:19:00</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>00:00:28:00</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>00:00:28:00</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>00:00:18:00</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>00:00:18:00</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>00:00:24:00</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>00:00:24:00</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -645,22 +1165,122 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>00:00:25:00</t>
+          <t>00:00:38:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>03:29:31:00</t>
+          <t>00:04:13:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:01:24:00</t>
+          <t>00:00:43:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>04:13:57:00</t>
+          <t>00:01:40:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>00:00:23:00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>00:00:37:00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>00:00:24:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>00:00:37:00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>00:00:24:00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>00:01:05:00</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>00:00:21:00</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>00:00:48:00</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>00:00:23:00</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>00:18:09:00</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>00:00:30:00</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>00:01:12:00</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>00:00:20:00</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>00:00:35:00</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>00:00:17:00</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>00:00:55:00</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>00:00:24:00</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>00:00:35:00</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>00:00:20:00</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>00:00:34:00</t>
         </is>
       </c>
     </row>
@@ -674,14 +1294,50 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:25:00</t>
+          <t>00:01:25:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>08:26:01:00</t>
-        </is>
-      </c>
+          <t>00:01:31:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>00:00:27:00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>00:00:43:00</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>00:04:16:00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>00:18:18:00</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -689,26 +1345,46 @@
           <t>IOL Positioning</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>00:01:25:00</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>04:13:50:00</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:01:41:00</t>
+          <t>00:01:35:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>00:51:17:00</t>
-        </is>
-      </c>
+          <t>00:01:35:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>00:00:29:00</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>00:16:38:00</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -718,24 +1394,60 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>00:00:57:00</t>
+          <t>00:01:06:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>04:16:15:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>00:14:07:00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>06:52:29:00</t>
-        </is>
-      </c>
+          <t>00:01:16:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>00:00:28:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>00:00:28:00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>00:01:22:00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>00:14:06:00</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>00:00:20:00</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>00:00:20:00</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -747,6 +1459,26 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -758,6 +1490,26 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -769,6 +1521,26 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -780,6 +1552,26 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
